--- a/5.Other/Báo giá linh kiện/Báo giá thay thế linh kiện C43 H5.xlsx
+++ b/5.Other/Báo giá linh kiện/Báo giá thay thế linh kiện C43 H5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEADER-SXBH\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5.Other\Báo giá linh kiện\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129CA063-314D-4F9A-8055-A9FF1379EAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A71155-E3E9-4593-9216-D569E961209B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$34</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="63">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -31,18 +31,12 @@
     <t>Model</t>
   </si>
   <si>
-    <t>XÁC NHẬN CỦA BỘ PHẬN BẢO HÀNH</t>
-  </si>
-  <si>
     <t>Đơn giá</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Hà Văn Thể</t>
-  </si>
-  <si>
     <t>Công Ty CP Công Nghệ Điện Tử &amp; Viễn Thông Việt Nam</t>
   </si>
   <si>
@@ -91,9 +85,6 @@
     <t>Sửa giao tiếp module</t>
   </si>
   <si>
-    <t>Hà Nội, ngày 15 tháng 11 Năm 2024</t>
-  </si>
-  <si>
     <t>Thiết bị lỗi module SIM</t>
   </si>
   <si>
@@ -220,17 +211,14 @@
     <t>Bp bảo hành sẽ update thêm biểu phí mới nếu có lỗi phát sinh khác</t>
   </si>
   <si>
-    <t>Các biểu phí trong bảng dựa trên các thiết bị được hãng ST bảo hành và báo giá gửi VNET.</t>
-  </si>
-  <si>
-    <t>NHÂN VIÊN LẬP BẢNG</t>
+    <t>Phí chưa cộng, công thay thế sửa chữa + 400,000 bên Streamax báo lại</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,12 +320,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <name val="Times New Roman"/>
@@ -588,16 +570,126 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -610,6 +702,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -622,91 +717,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -715,56 +732,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1129,7 +1113,7 @@
   <dimension ref="A1:AA53"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="130" zoomScaleNormal="84" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:E26"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1152,74 +1136,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="35" t="s">
+      <c r="A1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="40"/>
+    </row>
+    <row r="2" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="43"/>
+    </row>
+    <row r="3" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="53"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="46"/>
+    </row>
+    <row r="4" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="56"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="37"/>
-    </row>
-    <row r="2" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
-    </row>
-    <row r="3" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="43"/>
-    </row>
-    <row r="4" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="46"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="49"/>
     </row>
     <row r="5" spans="1:27" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="60"/>
+      <c r="A5" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="61"/>
     </row>
     <row r="6" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -1228,438 +1212,438 @@
       <c r="B6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="9" t="s">
+      <c r="J6" s="22"/>
+      <c r="AA6" s="2"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="32">
+        <v>1</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="12">
+        <v>400000</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="31"/>
+      <c r="H7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
+      <c r="AA7" s="2"/>
+    </row>
+    <row r="8" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="12">
+        <v>230000</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="31"/>
+      <c r="H8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="17"/>
+      <c r="AA8" s="2"/>
+    </row>
+    <row r="9" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="12">
+        <v>400000</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="31"/>
+      <c r="H9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="22"/>
+      <c r="AA9" s="2"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="12">
+        <v>230000</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="31"/>
+      <c r="H10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="22"/>
+      <c r="AA10" s="2"/>
+    </row>
+    <row r="11" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="12">
+        <v>170000</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="31"/>
+      <c r="H11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="22"/>
+      <c r="AA11" s="2"/>
+    </row>
+    <row r="12" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="12">
+        <v>230000</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="31"/>
+      <c r="H12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="22"/>
+      <c r="AA12" s="2"/>
+    </row>
+    <row r="13" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="12">
+        <v>230000</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="31"/>
+      <c r="H13" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="22"/>
+      <c r="AA13" s="2"/>
+    </row>
+    <row r="14" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="12">
+        <v>140000</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="31"/>
+      <c r="H14" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="22"/>
+      <c r="AA14" s="2"/>
+    </row>
+    <row r="15" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="12">
+        <v>140000</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="31"/>
+      <c r="H15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="21"/>
+      <c r="J15" s="22"/>
+      <c r="AA15" s="2"/>
+    </row>
+    <row r="16" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="12">
+        <v>50000</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="31"/>
+      <c r="H16" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="21"/>
+      <c r="J16" s="22"/>
+      <c r="AA16" s="2"/>
+    </row>
+    <row r="17" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="12">
+        <v>140000</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="31"/>
+      <c r="H17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I17" s="21"/>
+      <c r="J17" s="22"/>
+      <c r="AA17" s="2"/>
+    </row>
+    <row r="18" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="19">
+        <v>200000</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="29"/>
+      <c r="H18" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="29"/>
+      <c r="AA18" s="2"/>
+    </row>
+    <row r="19" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="32">
+        <v>2</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="12">
+        <v>140000</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="31"/>
+      <c r="H19" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="21"/>
+      <c r="J19" s="22"/>
+      <c r="AA19" s="2"/>
+    </row>
+    <row r="20" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="12">
+        <v>230000</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="21"/>
+      <c r="J20" s="22"/>
+      <c r="AA20" s="2"/>
+    </row>
+    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="12">
+        <v>470000</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="31"/>
+      <c r="H21" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="21"/>
+      <c r="J21" s="22"/>
+      <c r="AA21" s="2"/>
+    </row>
+    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="12">
+        <v>230000</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="31"/>
+      <c r="H22" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="26"/>
-      <c r="AA6" s="2"/>
-    </row>
-    <row r="7" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29">
-        <v>1</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="24">
-        <v>400000</v>
-      </c>
-      <c r="F7" s="27" t="s">
+      <c r="I22" s="21"/>
+      <c r="J22" s="22"/>
+      <c r="AA22" s="2"/>
+    </row>
+    <row r="23" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="12">
+        <v>140000</v>
+      </c>
+      <c r="F23" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="51"/>
-      <c r="J7" s="52"/>
-      <c r="AA7" s="2"/>
-    </row>
-    <row r="8" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="24">
-        <v>230000</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="53"/>
-      <c r="AA8" s="2"/>
-    </row>
-    <row r="9" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="24">
-        <v>400000</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="26"/>
-      <c r="AA9" s="2"/>
-    </row>
-    <row r="10" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="24">
-        <v>230000</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="26"/>
-      <c r="AA10" s="2"/>
-    </row>
-    <row r="11" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="24">
-        <v>170000</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="26"/>
-      <c r="AA11" s="2"/>
-    </row>
-    <row r="12" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="24">
-        <v>230000</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="26"/>
-      <c r="AA12" s="2"/>
-    </row>
-    <row r="13" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="24">
-        <v>230000</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="26"/>
-      <c r="AA13" s="2"/>
-    </row>
-    <row r="14" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="48" t="s">
+      <c r="G23" s="31"/>
+      <c r="H23" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="24">
-        <v>140000</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="26"/>
-      <c r="AA14" s="2"/>
-    </row>
-    <row r="15" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="24">
-        <v>140000</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="26"/>
-      <c r="AA15" s="2"/>
-    </row>
-    <row r="16" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="24">
-        <v>50000</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="26"/>
-      <c r="AA16" s="2"/>
-    </row>
-    <row r="17" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="24">
-        <v>140000</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="26"/>
-      <c r="AA17" s="2"/>
-    </row>
-    <row r="18" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="62">
-        <v>200000</v>
-      </c>
-      <c r="F18" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="64"/>
-      <c r="H18" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" s="63" t="s">
+      <c r="I23" s="23"/>
+      <c r="J23" s="24"/>
+      <c r="AA23" s="2"/>
+    </row>
+    <row r="24" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="J18" s="64"/>
-      <c r="AA18" s="2"/>
-    </row>
-    <row r="19" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29">
-        <v>2</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="24">
-        <v>140000</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="28"/>
-      <c r="H19" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" s="25"/>
-      <c r="J19" s="26"/>
-      <c r="AA19" s="2"/>
-    </row>
-    <row r="20" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="24">
-        <v>230000</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="33"/>
-      <c r="H20" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="I20" s="25"/>
-      <c r="J20" s="26"/>
-      <c r="AA20" s="2"/>
-    </row>
-    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="24">
-        <v>470000</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="28"/>
-      <c r="H21" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
-      <c r="AA21" s="2"/>
-    </row>
-    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="24">
-        <v>230000</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="28"/>
-      <c r="H22" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
-      <c r="AA22" s="2"/>
-    </row>
-    <row r="23" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="24">
-        <v>140000</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="28"/>
-      <c r="H23" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="I23" s="55"/>
-      <c r="J23" s="56"/>
-      <c r="AA23" s="2"/>
-    </row>
-    <row r="24" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="68"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="27"/>
       <c r="AA24" s="2"/>
     </row>
     <row r="25" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="69" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
       <c r="J25" s="5"/>
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
+      <c r="A26" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -1673,30 +1657,24 @@
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
       <c r="AA27" s="2"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
       <c r="AA28" s="2"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
@@ -1719,7 +1697,7 @@
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -1754,20 +1732,16 @@
       <c r="AA32" s="2"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
+      <c r="A33" s="65"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
       <c r="AA33" s="2"/>
     </row>
     <row r="34" spans="1:27" ht="17.25" x14ac:dyDescent="0.25">
@@ -1803,206 +1777,206 @@
       <c r="AA40" s="2"/>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="10">
+        <v>400000</v>
+      </c>
+      <c r="F41" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="31"/>
+      <c r="H41" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA41" s="2"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B42" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="10">
+        <v>400000</v>
+      </c>
+      <c r="F42" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="31"/>
+      <c r="H42" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA42" s="2"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B43" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="10">
+        <v>140000</v>
+      </c>
+      <c r="F43" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="31"/>
+      <c r="H43" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA43" s="2"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B44" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D41" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="22">
+      <c r="D44" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="10">
+        <v>230000</v>
+      </c>
+      <c r="F44" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" s="31"/>
+      <c r="H44" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA44" s="2"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D45" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="10">
+        <v>140000</v>
+      </c>
+      <c r="F45" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" s="31"/>
+      <c r="H45" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA45" s="2"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D46" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="10">
+        <v>140000</v>
+      </c>
+      <c r="F46" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" s="31"/>
+      <c r="H46" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA46" s="2"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D47" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="10">
+        <v>50000</v>
+      </c>
+      <c r="F47" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G47" s="31"/>
+      <c r="H47" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA47" s="2"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="D48" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" s="10">
+        <v>230000</v>
+      </c>
+      <c r="F48" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" s="31"/>
+      <c r="H48" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA48" s="2"/>
+    </row>
+    <row r="49" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D49" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" s="10">
+        <v>230000</v>
+      </c>
+      <c r="F49" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" s="31"/>
+      <c r="H49" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA49" s="2"/>
+    </row>
+    <row r="50" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="10">
+        <v>170000</v>
+      </c>
+      <c r="F50" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" s="31"/>
+      <c r="H50" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA50" s="2"/>
+    </row>
+    <row r="51" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D51" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="10">
+        <v>200000</v>
+      </c>
+      <c r="F51" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G51" s="31"/>
+      <c r="H51" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA51" s="2"/>
+    </row>
+    <row r="52" spans="4:27" x14ac:dyDescent="0.25">
+      <c r="D52" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="10">
         <v>400000</v>
       </c>
-      <c r="F41" s="27" t="s">
+      <c r="F52" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G41" s="28"/>
-      <c r="H41" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA41" s="2"/>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B42" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="22">
-        <v>400000</v>
-      </c>
-      <c r="F42" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" s="28"/>
-      <c r="H42" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA42" s="2"/>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B43" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="22">
-        <v>140000</v>
-      </c>
-      <c r="F43" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="G43" s="28"/>
-      <c r="H43" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA43" s="2"/>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B44" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44" s="22">
-        <v>230000</v>
-      </c>
-      <c r="F44" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" s="28"/>
-      <c r="H44" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA44" s="2"/>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D45" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" s="22">
-        <v>140000</v>
-      </c>
-      <c r="F45" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" s="28"/>
-      <c r="H45" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA45" s="2"/>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D46" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="22">
-        <v>140000</v>
-      </c>
-      <c r="F46" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G46" s="28"/>
-      <c r="H46" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA46" s="2"/>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D47" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E47" s="22">
-        <v>50000</v>
-      </c>
-      <c r="F47" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="G47" s="28"/>
-      <c r="H47" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA47" s="2"/>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D48" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E48" s="22">
-        <v>230000</v>
-      </c>
-      <c r="F48" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="G48" s="28"/>
-      <c r="H48" s="34" t="s">
+      <c r="G52" s="31"/>
+      <c r="H52" s="15" t="s">
         <v>40</v>
-      </c>
-      <c r="AA48" s="2"/>
-    </row>
-    <row r="49" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D49" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E49" s="22">
-        <v>230000</v>
-      </c>
-      <c r="F49" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="G49" s="28"/>
-      <c r="H49" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA49" s="2"/>
-    </row>
-    <row r="50" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D50" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E50" s="22">
-        <v>170000</v>
-      </c>
-      <c r="F50" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G50" s="28"/>
-      <c r="H50" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA50" s="2"/>
-    </row>
-    <row r="51" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D51" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E51" s="22">
-        <v>200000</v>
-      </c>
-      <c r="F51" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="G51" s="28"/>
-      <c r="H51" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA51" s="2"/>
-    </row>
-    <row r="52" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D52" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E52" s="22">
-        <v>400000</v>
-      </c>
-      <c r="F52" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G52" s="28"/>
-      <c r="H52" s="34" t="s">
-        <v>43</v>
       </c>
       <c r="AA52" s="2"/>
     </row>
@@ -2011,21 +1985,40 @@
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="70">
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
+  <mergeCells count="64">
+    <mergeCell ref="A7:A18"/>
+    <mergeCell ref="B7:B18"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
     <mergeCell ref="F51:G51"/>
     <mergeCell ref="F52:G52"/>
     <mergeCell ref="F8:G8"/>
@@ -2042,46 +2035,21 @@
     <mergeCell ref="F49:G49"/>
     <mergeCell ref="F50:G50"/>
     <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="A19:A23"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
     <mergeCell ref="B19:B23"/>
-    <mergeCell ref="F33:J33"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="A7:A18"/>
-    <mergeCell ref="B7:B18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
